--- a/peilvakken_node_ids.xlsx
+++ b/peilvakken_node_ids.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louiseklingen/code/MargaritaLK/rtcxdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5B49E22-A9DE-7944-832A-1A042ACB926A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E382D4-C5CB-4245-89E2-E223F53064DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15760" yWindow="1380" windowWidth="28040" windowHeight="17440" xr2:uid="{826D19A8-B000-E348-87E2-FB1F720F801D}"/>
+    <workbookView xWindow="5560" yWindow="1380" windowWidth="28040" windowHeight="17440" xr2:uid="{826D19A8-B000-E348-87E2-FB1F720F801D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>peilvak</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>03150-10</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -402,54 +405,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26649545-7F9F-8744-A9A8-932FE9BEFDED}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>29960</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>28303</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>28202</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>27908</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>2364</v>
       </c>
     </row>

--- a/peilvakken_node_ids.xlsx
+++ b/peilvakken_node_ids.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louiseklingen/code/MargaritaLK/rtcxdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E382D4-C5CB-4245-89E2-E223F53064DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4810BED-C3E5-224C-B682-D2B5F873FC3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="1380" windowWidth="28040" windowHeight="17440" xr2:uid="{826D19A8-B000-E348-87E2-FB1F720F801D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{826D19A8-B000-E348-87E2-FB1F720F801D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>peilvak</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>wl_node_up</t>
   </si>
@@ -54,6 +51,12 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>wl_node_middle</t>
+  </si>
+  <si>
+    <t>peilvak_code</t>
   </si>
 </sst>
 </file>
@@ -405,69 +408,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26649545-7F9F-8744-A9A8-932FE9BEFDED}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>29960</v>
+        <v>26576</v>
       </c>
       <c r="D2">
-        <v>28303</v>
+        <v>23631</v>
+      </c>
+      <c r="E2">
+        <v>30141</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>28202</v>
+        <v>28209</v>
       </c>
       <c r="D3">
-        <v>27908</v>
+        <v>27907</v>
+      </c>
+      <c r="E3">
+        <v>29921</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>2364</v>
+        <v>29542</v>
+      </c>
+      <c r="D4">
+        <v>28620</v>
+      </c>
+      <c r="E4">
+        <v>27178</v>
       </c>
     </row>
   </sheetData>

--- a/peilvakken_node_ids.xlsx
+++ b/peilvakken_node_ids.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louiseklingen/code/MargaritaLK/rtcxdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4810BED-C3E5-224C-B682-D2B5F873FC3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9C5E3E-9C3E-E64C-B7E5-83DA92821A49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{826D19A8-B000-E348-87E2-FB1F720F801D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{826D19A8-B000-E348-87E2-FB1F720F801D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>wl_node_up</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>peilvak_code</t>
+  </si>
+  <si>
+    <t>wl_node_up2</t>
+  </si>
+  <si>
+    <t>03150-23</t>
   </si>
 </sst>
 </file>
@@ -408,20 +414,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26649545-7F9F-8744-A9A8-932FE9BEFDED}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -432,13 +439,16 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -448,14 +458,14 @@
       <c r="C2">
         <v>26576</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>23631</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>30141</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -465,14 +475,14 @@
       <c r="C3">
         <v>28209</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>27907</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>29921</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -483,10 +493,27 @@
         <v>29542</v>
       </c>
       <c r="D4">
+        <v>28638</v>
+      </c>
+      <c r="E4">
         <v>28620</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>27178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>29021</v>
+      </c>
+      <c r="E5">
+        <v>27123</v>
       </c>
     </row>
   </sheetData>

--- a/peilvakken_node_ids.xlsx
+++ b/peilvakken_node_ids.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louiseklingen/code/MargaritaLK/rtcxdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9C5E3E-9C3E-E64C-B7E5-83DA92821A49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3977F0-B295-2343-8349-6148AC8E8484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{826D19A8-B000-E348-87E2-FB1F720F801D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>wl_node_up</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>03150-23</t>
+  </si>
+  <si>
+    <t>wl_select</t>
   </si>
 </sst>
 </file>
@@ -414,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26649545-7F9F-8744-A9A8-932FE9BEFDED}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -428,7 +431,7 @@
     <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -447,8 +450,11 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -464,8 +470,12 @@
       <c r="F2">
         <v>30141</v>
       </c>
+      <c r="G2">
+        <f>E2</f>
+        <v>23631</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -481,8 +491,12 @@
       <c r="F3">
         <v>29921</v>
       </c>
+      <c r="G3">
+        <f>C3</f>
+        <v>28209</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -501,8 +515,12 @@
       <c r="F4">
         <v>27178</v>
       </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G5" si="0">C4</f>
+        <v>29542</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>3</v>
       </c>
@@ -513,6 +531,10 @@
         <v>29021</v>
       </c>
       <c r="E5">
+        <v>27123</v>
+      </c>
+      <c r="G5">
+        <f>E5</f>
         <v>27123</v>
       </c>
     </row>

--- a/peilvakken_node_ids.xlsx
+++ b/peilvakken_node_ids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louiseklingen/code/MargaritaLK/rtcxdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3977F0-B295-2343-8349-6148AC8E8484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54078FA7-816A-E24A-B706-CB08A7CA62BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{826D19A8-B000-E348-87E2-FB1F720F801D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>wl_node_up</t>
   </si>
@@ -66,16 +66,38 @@
   </si>
   <si>
     <t>wl_select</t>
+  </si>
+  <si>
+    <t>0315-06</t>
+  </si>
+  <si>
+    <t>29998</t>
+  </si>
+  <si>
+    <t>0315-20</t>
+  </si>
+  <si>
+    <t>29230</t>
+  </si>
+  <si>
+    <t>26411</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,8 +123,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26649545-7F9F-8744-A9A8-932FE9BEFDED}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I17" sqref="I17:Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -461,16 +485,16 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>26576</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>23631</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>30141</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <f>E2</f>
         <v>23631</v>
       </c>
@@ -482,16 +506,16 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>28209</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>27907</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>29921</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <f>C3</f>
         <v>28209</v>
       </c>
@@ -503,40 +527,165 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>29542</v>
       </c>
       <c r="D4">
         <v>28638</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>28620</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>27178</v>
       </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G5" si="0">C4</f>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4" si="0">C4</f>
         <v>29542</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>29021</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>27123</v>
       </c>
-      <c r="G5">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
         <f>E5</f>
         <v>27123</v>
       </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="10:14">
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="10:14">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="10:14">
+      <c r="J22" s="2"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="10:14">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="10:14">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="10:14">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="10:14">
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="10:14">
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="10:14">
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="10:14">
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="N29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/peilvakken_node_ids.xlsx
+++ b/peilvakken_node_ids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louiseklingen/code/MargaritaLK/rtcxdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54078FA7-816A-E24A-B706-CB08A7CA62BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E390D526-E21D-0240-BABA-1993F4F90986}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{826D19A8-B000-E348-87E2-FB1F720F801D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>wl_node_up</t>
   </si>
@@ -65,22 +65,55 @@
     <t>03150-23</t>
   </si>
   <si>
-    <t>wl_select</t>
-  </si>
-  <si>
-    <t>0315-06</t>
-  </si>
-  <si>
     <t>29998</t>
   </si>
   <si>
-    <t>0315-20</t>
-  </si>
-  <si>
     <t>29230</t>
   </si>
   <si>
     <t>26411</t>
+  </si>
+  <si>
+    <t>03150-04</t>
+  </si>
+  <si>
+    <t>03150-05</t>
+  </si>
+  <si>
+    <t>03150-06</t>
+  </si>
+  <si>
+    <t>03150-19</t>
+  </si>
+  <si>
+    <t>03150-20</t>
+  </si>
+  <si>
+    <t>03150-24</t>
+  </si>
+  <si>
+    <t>03150-37</t>
+  </si>
+  <si>
+    <t>wl_node_select</t>
+  </si>
+  <si>
+    <t>29480</t>
+  </si>
+  <si>
+    <t>27352</t>
+  </si>
+  <si>
+    <t>29240</t>
+  </si>
+  <si>
+    <t>29014</t>
+  </si>
+  <si>
+    <t>27228</t>
+  </si>
+  <si>
+    <t>28668</t>
   </si>
 </sst>
 </file>
@@ -123,10 +156,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,18 +478,18 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:Q35"/>
+      <selection activeCell="I32" sqref="H32:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -475,164 +509,253 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>26576</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="1">
-        <v>23631</v>
-      </c>
-      <c r="F2" s="1">
-        <v>30141</v>
-      </c>
+        <v>28967</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1">
-        <f>E2</f>
-        <v>23631</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>28967</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>28209</v>
-      </c>
-      <c r="E3" s="1">
-        <v>27907</v>
-      </c>
-      <c r="F3" s="1">
-        <v>29921</v>
-      </c>
-      <c r="G3" s="1">
-        <f>C3</f>
-        <v>28209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>29542</v>
-      </c>
-      <c r="D4">
-        <v>28638</v>
-      </c>
-      <c r="E4" s="1">
-        <v>28620</v>
-      </c>
-      <c r="F4" s="1">
-        <v>27178</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" ref="G4" si="0">C4</f>
-        <v>29542</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>29021</v>
+        <v>29542</v>
+      </c>
+      <c r="D5" s="1">
+        <v>28638</v>
       </c>
       <c r="E5" s="1">
-        <v>27123</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>28620</v>
+      </c>
+      <c r="F5" s="1">
+        <v>27178</v>
+      </c>
       <c r="G5" s="1">
-        <f>E5</f>
-        <v>27123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>28620</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>26576</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>23631</v>
+      </c>
+      <c r="F8" s="1">
+        <v>30141</v>
+      </c>
+      <c r="G8" s="1">
+        <f>E8</f>
+        <v>23631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>29021</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1">
+        <v>27123</v>
+      </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="1">
+        <f>E9</f>
+        <v>27123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>28209</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <v>27907</v>
+      </c>
+      <c r="F11" s="1">
+        <v>29921</v>
+      </c>
+      <c r="G11" s="1">
+        <v>27907</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>13</v>
-      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="20" spans="10:14">
       <c r="K20" s="1"/>
@@ -688,6 +811,9 @@
       <c r="N29" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G7">
+    <sortCondition ref="B2:B7"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/peilvakken_node_ids.xlsx
+++ b/peilvakken_node_ids.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louiseklingen/code/MargaritaLK/rtcxdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E390D526-E21D-0240-BABA-1993F4F90986}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827E5836-597C-284D-898A-E585D96BA6D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{826D19A8-B000-E348-87E2-FB1F720F801D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>wl_node_up</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>28668</t>
+  </si>
+  <si>
+    <t>03150-26</t>
+  </si>
+  <si>
+    <t>27559</t>
   </si>
 </sst>
 </file>
@@ -478,7 +484,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="H32:I33"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -737,11 +743,21 @@
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="C14" s="1"/>

--- a/peilvakken_node_ids.xlsx
+++ b/peilvakken_node_ids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louiseklingen/code/MargaritaLK/rtcxdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827E5836-597C-284D-898A-E585D96BA6D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9429DF62-AFE0-DF47-AAB6-277CEE7795A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{826D19A8-B000-E348-87E2-FB1F720F801D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="95">
   <si>
     <t>wl_node_up</t>
   </si>
@@ -120,13 +120,211 @@
   </si>
   <si>
     <t>27559</t>
+  </si>
+  <si>
+    <t>03150-40</t>
+  </si>
+  <si>
+    <t>27692</t>
+  </si>
+  <si>
+    <t>03150-43</t>
+  </si>
+  <si>
+    <t>23495</t>
+  </si>
+  <si>
+    <t>03150-44</t>
+  </si>
+  <si>
+    <t>03150-39</t>
+  </si>
+  <si>
+    <t>03150-50</t>
+  </si>
+  <si>
+    <t>03150-49</t>
+  </si>
+  <si>
+    <t>24133</t>
+  </si>
+  <si>
+    <t>03150-46</t>
+  </si>
+  <si>
+    <t>29077</t>
+  </si>
+  <si>
+    <t>29102</t>
+  </si>
+  <si>
+    <t>03150-41</t>
+  </si>
+  <si>
+    <t>27424</t>
+  </si>
+  <si>
+    <t>03150-33</t>
+  </si>
+  <si>
+    <t>26543</t>
+  </si>
+  <si>
+    <t>03150-36</t>
+  </si>
+  <si>
+    <t>29928</t>
+  </si>
+  <si>
+    <t>03150-47</t>
+  </si>
+  <si>
+    <t>28331</t>
+  </si>
+  <si>
+    <t>03150-45</t>
+  </si>
+  <si>
+    <t>03150-35</t>
+  </si>
+  <si>
+    <t>28266</t>
+  </si>
+  <si>
+    <t>03150-28</t>
+  </si>
+  <si>
+    <t>22016</t>
+  </si>
+  <si>
+    <t>03150-22</t>
+  </si>
+  <si>
+    <t>26841</t>
+  </si>
+  <si>
+    <t>03150-07</t>
+  </si>
+  <si>
+    <t>30340</t>
+  </si>
+  <si>
+    <t>03150-02</t>
+  </si>
+  <si>
+    <t>30076</t>
+  </si>
+  <si>
+    <t>03150-09</t>
+  </si>
+  <si>
+    <t>23112</t>
+  </si>
+  <si>
+    <t>03150-01</t>
+  </si>
+  <si>
+    <t>29335</t>
+  </si>
+  <si>
+    <t>03150-08</t>
+  </si>
+  <si>
+    <t>27195</t>
+  </si>
+  <si>
+    <t>03150-13</t>
+  </si>
+  <si>
+    <t>29042</t>
+  </si>
+  <si>
+    <t>03150-12</t>
+  </si>
+  <si>
+    <t>03150-11</t>
+  </si>
+  <si>
+    <t>28885</t>
+  </si>
+  <si>
+    <t>03150-18</t>
+  </si>
+  <si>
+    <t>27338</t>
+  </si>
+  <si>
+    <t>03150-16</t>
+  </si>
+  <si>
+    <t>28980</t>
+  </si>
+  <si>
+    <t>03150-14</t>
+  </si>
+  <si>
+    <t>27206</t>
+  </si>
+  <si>
+    <t>03150-15</t>
+  </si>
+  <si>
+    <t>03150-17</t>
+  </si>
+  <si>
+    <t>27270</t>
+  </si>
+  <si>
+    <t>03150-25</t>
+  </si>
+  <si>
+    <t>28868</t>
+  </si>
+  <si>
+    <t>03150-51</t>
+  </si>
+  <si>
+    <t>21916</t>
+  </si>
+  <si>
+    <t>03150-34</t>
+  </si>
+  <si>
+    <t>28696</t>
+  </si>
+  <si>
+    <t>03150-30</t>
+  </si>
+  <si>
+    <t>03150-31</t>
+  </si>
+  <si>
+    <t>28504</t>
+  </si>
+  <si>
+    <t>03150-32</t>
+  </si>
+  <si>
+    <t>03150-38</t>
+  </si>
+  <si>
+    <t>03350-01</t>
+  </si>
+  <si>
+    <t>03150-03</t>
+  </si>
+  <si>
+    <t>03150-48</t>
+  </si>
+  <si>
+    <t>03150-52</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -162,11 +360,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,21 +678,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26649545-7F9F-8744-A9A8-932FE9BEFDED}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -518,317 +716,790 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1">
-        <v>28967</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1">
-        <v>28967</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12">
+        <v>62</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12">
+        <v>92</v>
+      </c>
+      <c r="F4" s="1">
+        <v>22882</v>
+      </c>
+      <c r="G4" s="1">
+        <v>22882</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>29542</v>
-      </c>
-      <c r="D5" s="1">
-        <v>28638</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="1">
-        <v>28620</v>
-      </c>
-      <c r="F5" s="1">
-        <v>27178</v>
-      </c>
+        <v>28967</v>
+      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1">
-        <v>28620</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>28967</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>26576</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1">
-        <v>23631</v>
-      </c>
-      <c r="F8" s="1">
-        <v>30141</v>
-      </c>
-      <c r="G8" s="1">
-        <f>E8</f>
-        <v>23631</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1">
-        <v>29021</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="1">
-        <v>27123</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1">
-        <f>E9</f>
-        <v>27123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>64</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="G10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1">
-        <v>28209</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>29542</v>
+      </c>
+      <c r="D11" s="1">
+        <v>28638</v>
+      </c>
       <c r="E11" s="1">
-        <v>27907</v>
+        <v>28620</v>
       </c>
       <c r="F11" s="1">
-        <v>29921</v>
+        <v>27178</v>
       </c>
       <c r="G11" s="1">
-        <v>27907</v>
-      </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:12">
+        <v>28620</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="1">
+        <v>27411</v>
+      </c>
+      <c r="G13" s="1">
+        <v>27411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="1">
+        <v>22681</v>
+      </c>
+      <c r="G16" s="1">
+        <v>22681</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>26576</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
+        <v>23631</v>
+      </c>
+      <c r="F22" s="1">
+        <v>30141</v>
+      </c>
+      <c r="G22" s="1">
+        <f>E22</f>
+        <v>23631</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1">
+        <v>29021</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="1">
+        <v>27123</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1">
+        <f>E24</f>
+        <v>27123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="20" spans="10:14">
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="10:14">
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="10:14">
-      <c r="J22" s="2"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="10:14">
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="10:14">
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="10:14">
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="10:14">
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="10:14">
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="10:14">
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="10:14">
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="N29" s="1"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>28209</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1">
+        <v>27907</v>
+      </c>
+      <c r="F28" s="1">
+        <v>29921</v>
+      </c>
+      <c r="G28" s="1">
+        <v>27907</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="1">
+        <v>28509</v>
+      </c>
+      <c r="G30" s="1">
+        <v>28509</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="1">
+        <v>28495</v>
+      </c>
+      <c r="G32" s="1">
+        <v>28495</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="1">
+        <v>21937</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1">
+        <v>21937</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="1">
+        <v>29514</v>
+      </c>
+      <c r="G39" s="1">
+        <v>29514</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="1">
+        <v>28339</v>
+      </c>
+      <c r="G43" s="1">
+        <v>28339</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="F47" s="1">
+        <v>25954</v>
+      </c>
+      <c r="G47" s="1">
+        <v>25954</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" s="1">
+        <v>29363</v>
+      </c>
+      <c r="G49" s="1">
+        <v>29363</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>82</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" s="1">
+        <v>26271</v>
+      </c>
+      <c r="G51" s="1">
+        <v>26271</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" s="1">
+        <v>28491</v>
+      </c>
+      <c r="G52" s="1">
+        <v>28491</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G7">
-    <sortCondition ref="B2:B7"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G52">
+    <sortCondition ref="B2:B52"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/peilvakken_node_ids.xlsx
+++ b/peilvakken_node_ids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louiseklingen/code/MargaritaLK/rtcxdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9429DF62-AFE0-DF47-AAB6-277CEE7795A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D583DE-A570-AB42-9086-4A71346C1123}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{826D19A8-B000-E348-87E2-FB1F720F801D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="96">
   <si>
     <t>wl_node_up</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>03150-52</t>
+  </si>
+  <si>
+    <t>03150-42</t>
   </si>
 </sst>
 </file>
@@ -678,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26649545-7F9F-8744-A9A8-932FE9BEFDED}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1345,16 +1348,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>32</v>
+        <v>95</v>
+      </c>
+      <c r="F42" s="1">
+        <v>27418</v>
+      </c>
+      <c r="G42" s="1">
+        <v>27418</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1362,13 +1362,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
-      </c>
-      <c r="F43" s="1">
-        <v>28339</v>
-      </c>
-      <c r="G43" s="1">
-        <v>28339</v>
+        <v>31</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1376,27 +1379,27 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="F44" s="1">
+        <v>28339</v>
+      </c>
+      <c r="G44" s="1">
+        <v>28339</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>38</v>
+      <c r="B45" t="s">
+        <v>49</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -1404,27 +1407,27 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>93</v>
-      </c>
-      <c r="F47" s="1">
-        <v>25954</v>
-      </c>
-      <c r="G47" s="1">
-        <v>25954</v>
+      <c r="B47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -1432,13 +1435,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>37</v>
+        <v>93</v>
+      </c>
+      <c r="F48" s="1">
+        <v>25954</v>
+      </c>
+      <c r="G48" s="1">
+        <v>25954</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -1446,13 +1449,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
-      </c>
-      <c r="F49" s="1">
-        <v>29363</v>
-      </c>
-      <c r="G49" s="1">
-        <v>29363</v>
+        <v>36</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -1460,13 +1463,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>83</v>
+        <v>35</v>
+      </c>
+      <c r="F50" s="1">
+        <v>29363</v>
+      </c>
+      <c r="G50" s="1">
+        <v>29363</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1474,13 +1477,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>94</v>
-      </c>
-      <c r="F51" s="1">
-        <v>26271</v>
-      </c>
-      <c r="G51" s="1">
-        <v>26271</v>
+        <v>82</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -1488,12 +1491,26 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" s="1">
+        <v>26271</v>
+      </c>
+      <c r="G52" s="1">
+        <v>26271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
         <v>91</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F53" s="1">
         <v>28491</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G53" s="1">
         <v>28491</v>
       </c>
     </row>
